--- a/data/MEVGAL-Dairy-Sales/product1-2021.xlsx
+++ b/data/MEVGAL-Dairy-Sales/product1-2021.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iatropoulos\Desktop\Dataset to be published\v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msoltani/My Drive/_03_Projects/Intro-to-Data-Analytics/data/MEVGAL-Dairy-Sales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEA8A26-0F70-4AF8-8E44-FB400E63FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF4438B-072E-FD47-BB21-9AFCCBA16EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -167,9 +180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +220,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -313,7 +326,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -455,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,18 +476,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S366"/>
+  <dimension ref="A1:M366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="A366" sqref="A366:XFD368"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -515,7 +528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -559,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -602,12 +615,8 @@
       <c r="M3" s="4">
         <v>29</v>
       </c>
-      <c r="S3">
-        <f>H2-G2/G2</f>
-        <v>32.000000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -651,7 +660,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -695,7 +704,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -739,7 +748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -783,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -827,7 +836,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -871,7 +880,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -915,7 +924,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -959,7 +968,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1003,7 +1012,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1091,7 +1100,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1179,7 +1188,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1223,7 +1232,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1267,7 +1276,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1311,7 +1320,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1355,7 +1364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1443,7 +1452,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1531,7 +1540,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1575,7 +1584,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1663,7 +1672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1707,7 +1716,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1751,7 +1760,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1795,7 +1804,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1839,7 +1848,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1927,7 +1936,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2015,7 +2024,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6</v>
       </c>
@@ -2147,7 +2156,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7</v>
       </c>
@@ -2191,7 +2200,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8</v>
       </c>
@@ -2235,7 +2244,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9</v>
       </c>
@@ -2279,7 +2288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>11</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2411,7 +2420,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2455,7 +2464,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>14</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>15</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>16</v>
       </c>
@@ -2587,7 +2596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>17</v>
       </c>
@@ -2631,7 +2640,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>18</v>
       </c>
@@ -2675,7 +2684,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>19</v>
       </c>
@@ -2719,7 +2728,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>20</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>21</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>22</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>23</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>24</v>
       </c>
@@ -2939,7 +2948,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>25</v>
       </c>
@@ -2983,7 +2992,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>26</v>
       </c>
@@ -3027,7 +3036,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>27</v>
       </c>
@@ -3071,7 +3080,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>28</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3159,7 +3168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3203,7 +3212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3247,7 +3256,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>5</v>
       </c>
@@ -3335,7 +3344,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>8</v>
       </c>
@@ -3467,7 +3476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>9</v>
       </c>
@@ -3511,7 +3520,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>11</v>
       </c>
@@ -3599,7 +3608,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>12</v>
       </c>
@@ -3643,7 +3652,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>13</v>
       </c>
@@ -3687,7 +3696,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>14</v>
       </c>
@@ -3725,7 +3734,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>15</v>
       </c>
@@ -3769,7 +3778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>16</v>
       </c>
@@ -3813,7 +3822,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>17</v>
       </c>
@@ -3857,7 +3866,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>18</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>19</v>
       </c>
@@ -3945,7 +3954,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>20</v>
       </c>
@@ -3989,7 +3998,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>21</v>
       </c>
@@ -4033,7 +4042,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>22</v>
       </c>
@@ -4077,7 +4086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>23</v>
       </c>
@@ -4121,7 +4130,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>24</v>
       </c>
@@ -4165,7 +4174,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>25</v>
       </c>
@@ -4209,7 +4218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>26</v>
       </c>
@@ -4253,7 +4262,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>27</v>
       </c>
@@ -4297,7 +4306,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>28</v>
       </c>
@@ -4341,7 +4350,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>29</v>
       </c>
@@ -4385,7 +4394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>30</v>
       </c>
@@ -4429,7 +4438,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>31</v>
       </c>
@@ -4473,7 +4482,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -4517,7 +4526,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2</v>
       </c>
@@ -4561,7 +4570,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3</v>
       </c>
@@ -4605,7 +4614,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -4649,7 +4658,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5</v>
       </c>
@@ -4693,7 +4702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>6</v>
       </c>
@@ -4737,7 +4746,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>7</v>
       </c>
@@ -4781,7 +4790,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -4825,7 +4834,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9</v>
       </c>
@@ -4869,7 +4878,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10</v>
       </c>
@@ -4913,7 +4922,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>11</v>
       </c>
@@ -4957,7 +4966,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>12</v>
       </c>
@@ -5001,7 +5010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>13</v>
       </c>
@@ -5045,7 +5054,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>14</v>
       </c>
@@ -5089,7 +5098,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>15</v>
       </c>
@@ -5133,7 +5142,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>16</v>
       </c>
@@ -5177,7 +5186,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>17</v>
       </c>
@@ -5221,7 +5230,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>18</v>
       </c>
@@ -5265,7 +5274,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>19</v>
       </c>
@@ -5301,7 +5310,7 @@
       </c>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>20</v>
       </c>
@@ -5345,7 +5354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>21</v>
       </c>
@@ -5389,7 +5398,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>22</v>
       </c>
@@ -5433,7 +5442,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>23</v>
       </c>
@@ -5477,7 +5486,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>24</v>
       </c>
@@ -5521,7 +5530,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>25</v>
       </c>
@@ -5565,7 +5574,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>26</v>
       </c>
@@ -5609,7 +5618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>27</v>
       </c>
@@ -5653,7 +5662,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>28</v>
       </c>
@@ -5697,7 +5706,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>29</v>
       </c>
@@ -5741,7 +5750,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>30</v>
       </c>
@@ -5785,7 +5794,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -5829,7 +5838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -5867,7 +5876,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
@@ -5905,7 +5914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4</v>
       </c>
@@ -5949,7 +5958,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
@@ -5993,7 +6002,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -6037,7 +6046,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -6081,7 +6090,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>8</v>
       </c>
@@ -6125,7 +6134,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>9</v>
       </c>
@@ -6169,7 +6178,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10</v>
       </c>
@@ -6213,7 +6222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>11</v>
       </c>
@@ -6257,7 +6266,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>12</v>
       </c>
@@ -6301,7 +6310,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>13</v>
       </c>
@@ -6345,7 +6354,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>14</v>
       </c>
@@ -6389,7 +6398,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>15</v>
       </c>
@@ -6433,7 +6442,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>16</v>
       </c>
@@ -6477,7 +6486,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>17</v>
       </c>
@@ -6521,7 +6530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>18</v>
       </c>
@@ -6565,7 +6574,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>19</v>
       </c>
@@ -6609,7 +6618,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>20</v>
       </c>
@@ -6653,7 +6662,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>21</v>
       </c>
@@ -6697,7 +6706,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>22</v>
       </c>
@@ -6741,7 +6750,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>23</v>
       </c>
@@ -6785,7 +6794,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>24</v>
       </c>
@@ -6829,7 +6838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>25</v>
       </c>
@@ -6873,7 +6882,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>26</v>
       </c>
@@ -6917,7 +6926,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>27</v>
       </c>
@@ -6961,7 +6970,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>28</v>
       </c>
@@ -7005,7 +7014,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>29</v>
       </c>
@@ -7049,7 +7058,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>30</v>
       </c>
@@ -7093,7 +7102,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>31</v>
       </c>
@@ -7137,7 +7146,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -7181,7 +7190,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2</v>
       </c>
@@ -7225,7 +7234,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>3</v>
       </c>
@@ -7269,7 +7278,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4</v>
       </c>
@@ -7313,7 +7322,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>5</v>
       </c>
@@ -7357,7 +7366,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>6</v>
       </c>
@@ -7401,7 +7410,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>7</v>
       </c>
@@ -7445,7 +7454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>8</v>
       </c>
@@ -7489,7 +7498,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>9</v>
       </c>
@@ -7533,7 +7542,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>10</v>
       </c>
@@ -7577,7 +7586,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>11</v>
       </c>
@@ -7621,7 +7630,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>12</v>
       </c>
@@ -7665,7 +7674,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>13</v>
       </c>
@@ -7709,7 +7718,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>14</v>
       </c>
@@ -7753,7 +7762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>15</v>
       </c>
@@ -7797,7 +7806,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>16</v>
       </c>
@@ -7841,7 +7850,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>17</v>
       </c>
@@ -7885,7 +7894,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>18</v>
       </c>
@@ -7929,7 +7938,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>19</v>
       </c>
@@ -7973,7 +7982,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>20</v>
       </c>
@@ -8017,7 +8026,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>21</v>
       </c>
@@ -8061,7 +8070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>22</v>
       </c>
@@ -8105,7 +8114,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>23</v>
       </c>
@@ -8149,7 +8158,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>24</v>
       </c>
@@ -8193,7 +8202,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>25</v>
       </c>
@@ -8237,7 +8246,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>26</v>
       </c>
@@ -8281,7 +8290,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>27</v>
       </c>
@@ -8325,7 +8334,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>28</v>
       </c>
@@ -8369,7 +8378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>29</v>
       </c>
@@ -8413,7 +8422,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>30</v>
       </c>
@@ -8457,7 +8466,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -8501,7 +8510,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2</v>
       </c>
@@ -8545,7 +8554,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>3</v>
       </c>
@@ -8589,7 +8598,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>4</v>
       </c>
@@ -8633,7 +8642,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>5</v>
       </c>
@@ -8677,7 +8686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>6</v>
       </c>
@@ -8721,7 +8730,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>7</v>
       </c>
@@ -8765,7 +8774,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>8</v>
       </c>
@@ -8809,7 +8818,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>9</v>
       </c>
@@ -8853,7 +8862,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>10</v>
       </c>
@@ -8897,7 +8906,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>11</v>
       </c>
@@ -8941,7 +8950,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>12</v>
       </c>
@@ -8985,7 +8994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>13</v>
       </c>
@@ -9029,7 +9038,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>14</v>
       </c>
@@ -9073,7 +9082,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>15</v>
       </c>
@@ -9117,7 +9126,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>16</v>
       </c>
@@ -9161,7 +9170,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>17</v>
       </c>
@@ -9205,7 +9214,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>18</v>
       </c>
@@ -9249,7 +9258,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>19</v>
       </c>
@@ -9293,7 +9302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>20</v>
       </c>
@@ -9337,7 +9346,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>21</v>
       </c>
@@ -9381,7 +9390,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>22</v>
       </c>
@@ -9425,7 +9434,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>23</v>
       </c>
@@ -9469,7 +9478,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>24</v>
       </c>
@@ -9513,7 +9522,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>25</v>
       </c>
@@ -9557,7 +9566,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>26</v>
       </c>
@@ -9601,7 +9610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>27</v>
       </c>
@@ -9645,7 +9654,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>28</v>
       </c>
@@ -9689,7 +9698,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>29</v>
       </c>
@@ -9733,7 +9742,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>30</v>
       </c>
@@ -9777,7 +9786,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>31</v>
       </c>
@@ -9821,7 +9830,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1</v>
       </c>
@@ -9865,7 +9874,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2</v>
       </c>
@@ -9909,7 +9918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3</v>
       </c>
@@ -9953,7 +9962,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>4</v>
       </c>
@@ -9997,7 +10006,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>5</v>
       </c>
@@ -10041,7 +10050,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>6</v>
       </c>
@@ -10085,7 +10094,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>7</v>
       </c>
@@ -10129,7 +10138,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>8</v>
       </c>
@@ -10173,7 +10182,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9</v>
       </c>
@@ -10217,7 +10226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>10</v>
       </c>
@@ -10261,7 +10270,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>11</v>
       </c>
@@ -10305,7 +10314,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>12</v>
       </c>
@@ -10349,7 +10358,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>13</v>
       </c>
@@ -10393,7 +10402,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>14</v>
       </c>
@@ -10437,7 +10446,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>15</v>
       </c>
@@ -10481,7 +10490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>16</v>
       </c>
@@ -10525,7 +10534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>17</v>
       </c>
@@ -10569,7 +10578,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>18</v>
       </c>
@@ -10613,7 +10622,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>19</v>
       </c>
@@ -10657,7 +10666,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>20</v>
       </c>
@@ -10701,7 +10710,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>21</v>
       </c>
@@ -10745,7 +10754,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>22</v>
       </c>
@@ -10789,7 +10798,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>23</v>
       </c>
@@ -10833,7 +10842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>24</v>
       </c>
@@ -10877,7 +10886,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>25</v>
       </c>
@@ -10921,7 +10930,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>26</v>
       </c>
@@ -10965,7 +10974,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>27</v>
       </c>
@@ -11009,7 +11018,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>28</v>
       </c>
@@ -11053,7 +11062,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>29</v>
       </c>
@@ -11097,7 +11106,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>30</v>
       </c>
@@ -11141,7 +11150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>31</v>
       </c>
@@ -11185,7 +11194,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1</v>
       </c>
@@ -11229,7 +11238,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2</v>
       </c>
@@ -11273,7 +11282,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3</v>
       </c>
@@ -11317,7 +11326,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4</v>
       </c>
@@ -11361,7 +11370,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>5</v>
       </c>
@@ -11405,7 +11414,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>6</v>
       </c>
@@ -11449,7 +11458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7</v>
       </c>
@@ -11493,7 +11502,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>8</v>
       </c>
@@ -11537,7 +11546,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>9</v>
       </c>
@@ -11581,7 +11590,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>10</v>
       </c>
@@ -11625,7 +11634,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>11</v>
       </c>
@@ -11669,7 +11678,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>12</v>
       </c>
@@ -11713,7 +11722,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>13</v>
       </c>
@@ -11757,7 +11766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>14</v>
       </c>
@@ -11801,7 +11810,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>15</v>
       </c>
@@ -11845,7 +11854,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>16</v>
       </c>
@@ -11889,7 +11898,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>17</v>
       </c>
@@ -11933,7 +11942,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>18</v>
       </c>
@@ -11977,7 +11986,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>19</v>
       </c>
@@ -12021,7 +12030,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>20</v>
       </c>
@@ -12065,7 +12074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>21</v>
       </c>
@@ -12109,7 +12118,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>22</v>
       </c>
@@ -12153,7 +12162,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>23</v>
       </c>
@@ -12197,7 +12206,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>24</v>
       </c>
@@ -12241,7 +12250,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>25</v>
       </c>
@@ -12285,7 +12294,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>26</v>
       </c>
@@ -12329,7 +12338,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>27</v>
       </c>
@@ -12373,7 +12382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>28</v>
       </c>
@@ -12417,7 +12426,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>29</v>
       </c>
@@ -12461,7 +12470,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>30</v>
       </c>
@@ -12505,7 +12514,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1</v>
       </c>
@@ -12549,7 +12558,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2</v>
       </c>
@@ -12593,7 +12602,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>3</v>
       </c>
@@ -12637,7 +12646,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>4</v>
       </c>
@@ -12681,7 +12690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>5</v>
       </c>
@@ -12725,7 +12734,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>6</v>
       </c>
@@ -12769,7 +12778,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>7</v>
       </c>
@@ -12813,7 +12822,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>8</v>
       </c>
@@ -12857,7 +12866,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>9</v>
       </c>
@@ -12901,7 +12910,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>10</v>
       </c>
@@ -12945,7 +12954,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>11</v>
       </c>
@@ -12989,7 +12998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>12</v>
       </c>
@@ -13033,7 +13042,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>13</v>
       </c>
@@ -13077,7 +13086,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>14</v>
       </c>
@@ -13121,7 +13130,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>15</v>
       </c>
@@ -13165,7 +13174,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>16</v>
       </c>
@@ -13209,7 +13218,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>17</v>
       </c>
@@ -13253,7 +13262,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>18</v>
       </c>
@@ -13297,7 +13306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>19</v>
       </c>
@@ -13341,7 +13350,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>20</v>
       </c>
@@ -13385,7 +13394,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>21</v>
       </c>
@@ -13429,7 +13438,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>22</v>
       </c>
@@ -13473,7 +13482,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>23</v>
       </c>
@@ -13517,7 +13526,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>24</v>
       </c>
@@ -13561,7 +13570,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>25</v>
       </c>
@@ -13605,7 +13614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>26</v>
       </c>
@@ -13649,7 +13658,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>27</v>
       </c>
@@ -13693,7 +13702,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>28</v>
       </c>
@@ -13737,7 +13746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>29</v>
       </c>
@@ -13781,7 +13790,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>30</v>
       </c>
@@ -13825,7 +13834,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>31</v>
       </c>
@@ -13869,7 +13878,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>1</v>
       </c>
@@ -13913,7 +13922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2</v>
       </c>
@@ -13957,7 +13966,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>3</v>
       </c>
@@ -14001,7 +14010,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4</v>
       </c>
@@ -14045,7 +14054,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>5</v>
       </c>
@@ -14089,7 +14098,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>6</v>
       </c>
@@ -14133,7 +14142,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>7</v>
       </c>
@@ -14177,7 +14186,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>8</v>
       </c>
@@ -14221,7 +14230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>9</v>
       </c>
@@ -14265,7 +14274,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>10</v>
       </c>
@@ -14309,7 +14318,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>11</v>
       </c>
@@ -14353,7 +14362,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>12</v>
       </c>
@@ -14397,7 +14406,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>13</v>
       </c>
@@ -14441,7 +14450,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>14</v>
       </c>
@@ -14485,7 +14494,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>15</v>
       </c>
@@ -14529,7 +14538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>16</v>
       </c>
@@ -14573,7 +14582,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>17</v>
       </c>
@@ -14617,7 +14626,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>18</v>
       </c>
@@ -14636,7 +14645,7 @@
         <v>3747.0000000000014</v>
       </c>
       <c r="F323" s="3">
-        <f t="shared" ref="F323:F366" si="17">-(E323-D323)/E323</f>
+        <f t="shared" ref="F323:F365" si="17">-(E323-D323)/E323</f>
         <v>-1.6279690419002225E-2</v>
       </c>
       <c r="G323" s="2">
@@ -14661,7 +14670,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>19</v>
       </c>
@@ -14705,7 +14714,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>20</v>
       </c>
@@ -14749,7 +14758,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>21</v>
       </c>
@@ -14793,7 +14802,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>22</v>
       </c>
@@ -14837,7 +14846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>23</v>
       </c>
@@ -14881,7 +14890,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>24</v>
       </c>
@@ -14925,7 +14934,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>25</v>
       </c>
@@ -14969,7 +14978,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>26</v>
       </c>
@@ -15013,7 +15022,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>27</v>
       </c>
@@ -15057,7 +15066,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>28</v>
       </c>
@@ -15101,7 +15110,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>29</v>
       </c>
@@ -15145,7 +15154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>30</v>
       </c>
@@ -15189,7 +15198,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1</v>
       </c>
@@ -15233,7 +15242,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2</v>
       </c>
@@ -15277,7 +15286,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3</v>
       </c>
@@ -15321,7 +15330,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>4</v>
       </c>
@@ -15365,7 +15374,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>5</v>
       </c>
@@ -15409,7 +15418,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>6</v>
       </c>
@@ -15453,7 +15462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>7</v>
       </c>
@@ -15497,7 +15506,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>8</v>
       </c>
@@ -15541,7 +15550,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>9</v>
       </c>
@@ -15585,7 +15594,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>10</v>
       </c>
@@ -15629,7 +15638,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>11</v>
       </c>
@@ -15673,7 +15682,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>12</v>
       </c>
@@ -15717,7 +15726,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>13</v>
       </c>
@@ -15761,7 +15770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>14</v>
       </c>
@@ -15805,7 +15814,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>15</v>
       </c>
@@ -15849,7 +15858,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>16</v>
       </c>
@@ -15893,7 +15902,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>17</v>
       </c>
@@ -15937,7 +15946,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>18</v>
       </c>
@@ -15981,7 +15990,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>19</v>
       </c>
@@ -16025,7 +16034,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>20</v>
       </c>
@@ -16069,7 +16078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>21</v>
       </c>
@@ -16113,7 +16122,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>22</v>
       </c>
@@ -16157,7 +16166,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>23</v>
       </c>
@@ -16201,7 +16210,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>24</v>
       </c>
@@ -16245,7 +16254,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>26</v>
       </c>
@@ -16281,7 +16290,7 @@
       </c>
       <c r="M360" s="4"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>27</v>
       </c>
@@ -16325,7 +16334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>28</v>
       </c>
@@ -16369,7 +16378,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>29</v>
       </c>
@@ -16413,7 +16422,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>30</v>
       </c>
@@ -16457,7 +16466,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>31</v>
       </c>
@@ -16501,7 +16510,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
